--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>MMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>1100</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -775,34 +778,37 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
       <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
+      <c r="K9" s="3">
+        <v>100</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
@@ -819,35 +825,38 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
-        <v>1000</v>
-      </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -993,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,40 +1097,41 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1100</v>
       </c>
       <c r="J17" s="3">
         <v>1100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1116,41 +1142,44 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1210,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1222,32 +1255,35 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-1100</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1266,16 +1302,19 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
@@ -1286,14 +1325,14 @@
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1310,41 +1349,44 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1396,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1366,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,41 +1490,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1486,41 +1537,44 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1584,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1772,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1750,41 +1819,44 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1866,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,41 +1913,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +1960,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2052,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2144,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>1100</v>
       </c>
       <c r="J43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,22 +2238,25 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2169,8 +2267,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
@@ -2181,41 +2279,44 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2300</v>
       </c>
       <c r="F46" s="3">
         <v>2300</v>
       </c>
       <c r="G46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2379,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2301,8 +2408,8 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,34 +2567,37 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2661,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2634,10 +2764,10 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2646,7 +2776,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2680,18 +2813,18 @@
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2707,35 +2840,38 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
@@ -2743,7 +2879,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2751,35 +2887,38 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
@@ -2787,7 +2926,7 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -2795,8 +2934,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,31 +2981,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3169,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
@@ -3051,7 +3208,7 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3423,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,31 +3435,31 @@
         <v>1000</v>
       </c>
       <c r="E72" s="3">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="F72" s="3">
         <v>2100</v>
       </c>
       <c r="G72" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="H72" s="3">
         <v>1800</v>
       </c>
       <c r="I72" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J72" s="3">
         <v>1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-14000</v>
       </c>
       <c r="L72" s="3">
         <v>-14000</v>
       </c>
       <c r="M72" s="3">
-        <v>-13900</v>
+        <v>-14000</v>
       </c>
       <c r="N72" s="3">
         <v>-13900</v>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,34 +3611,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1800</v>
       </c>
       <c r="H76" s="3">
         <v>1800</v>
       </c>
       <c r="I76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -3465,7 +3650,7 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,90 +3705,96 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3804,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3651,8 +3849,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,34 +4105,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3977,8 +4197,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4107,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4342,16 +4587,16 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,34 +4660,37 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>MMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,118 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -781,40 +789,46 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
+      <c r="M9" s="3">
+        <v>100</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,32 +857,32 @@
         <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>700</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>700</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,46 +1150,48 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2300</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1145,55 +1199,67 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,29 +1341,29 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1305,22 +1379,28 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
@@ -1328,17 +1408,17 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1352,8 +1432,14 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,46 +1447,52 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1414,22 +1506,22 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>400</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>400</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>400</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>400</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,41 +2225,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>700</v>
       </c>
       <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>700</v>
+      </c>
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,41 +2327,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
       </c>
       <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,28 +2433,34 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2270,11 +2468,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
@@ -2282,47 +2480,53 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2335,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2391,10 +2607,10 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2411,11 +2627,11 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2596,14 +2836,14 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,41 +2910,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2767,22 +3029,22 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2796,25 +3058,31 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2823,14 +3091,14 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2843,28 +3111,34 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
-      </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -2873,77 +3147,89 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2984,19 +3270,25 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -3010,11 +3302,11 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>200</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
-        <v>100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,46 +3768,52 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F72" s="3">
         <v>1000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-14000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-13900</v>
       </c>
       <c r="P72" s="3">
         <v>-13900</v>
@@ -3473,8 +3821,14 @@
       <c r="Q72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>400</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3852,11 +4250,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,40 +4536,46 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>300</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
+      <c r="K89" s="3">
+        <v>300</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4200,11 +4642,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4339,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>100</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>100</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,13 +5055,19 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4590,19 +5082,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,40 +5161,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>MMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -795,46 +802,52 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
+      <c r="O9" s="3">
+        <v>100</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
@@ -848,47 +861,53 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F10" s="3">
         <v>700</v>
       </c>
       <c r="G10" s="3">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>700</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>1200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1061,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1061,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,25 +1203,27 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>1100</v>
@@ -1179,25 +1232,25 @@
         <v>1200</v>
       </c>
       <c r="K17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1205,61 +1258,73 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,44 +1399,50 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1385,8 +1458,14 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,14 +1478,14 @@
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1414,17 +1493,17 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -1438,61 +1517,73 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1512,22 +1603,22 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2107,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2398,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>800</v>
       </c>
       <c r="F41" s="3">
+        <v>900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>800</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
       </c>
       <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
+        <v>700</v>
+      </c>
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2453,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,47 +2512,53 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>900</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
       </c>
       <c r="H43" s="3">
+        <v>900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>500</v>
+      </c>
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2386,8 +2571,14 @@
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,34 +2630,40 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2474,11 +2671,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
@@ -2486,53 +2683,59 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2748,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,25 +2807,31 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2633,11 +2848,11 @@
       <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2842,14 +3081,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3161,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3220,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,16 +3270,18 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3035,22 +3296,22 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3064,8 +3325,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3097,14 +3364,14 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3117,34 +3384,40 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
-      </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3153,25 +3426,31 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,52 +3458,58 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>500</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,10 +3517,10 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3276,13 +3561,19 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -3290,11 +3581,11 @@
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -3308,11 +3599,11 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3797,14 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,52 +3812,58 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,52 +4115,58 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E72" s="3">
         <v>1100</v>
       </c>
       <c r="F72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H72" s="3">
         <v>1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-14000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-13900</v>
       </c>
       <c r="R72" s="3">
         <v>-13900</v>
@@ -3827,8 +4174,14 @@
       <c r="S72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E76" s="3">
         <v>1200</v>
       </c>
       <c r="F76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4256,11 +4653,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,46 +4969,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>300</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
+      <c r="M89" s="3">
+        <v>300</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4595,8 +5028,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4648,11 +5089,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4805,13 +5264,13 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>100</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>100</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,20 +5546,26 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5088,19 +5579,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,46 +5664,52 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5218,6 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>MMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,138 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>900</v>
       </c>
       <c r="G8" s="3">
         <v>900</v>
       </c>
       <c r="H8" s="3">
+        <v>900</v>
+      </c>
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -808,49 +812,52 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
+        <v>400</v>
+      </c>
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
+      <c r="P9" s="3">
+        <v>100</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>5</v>
@@ -867,50 +874,53 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1000</v>
       </c>
       <c r="K10" s="3">
         <v>1000</v>
       </c>
       <c r="L10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,55 +1231,56 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1100</v>
       </c>
       <c r="O17" s="3">
         <v>1100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,47 +1303,47 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,20 +1439,23 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
@@ -1426,26 +1463,26 @@
         <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1484,11 +1524,11 @@
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1499,14 +1539,14 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,11 +1575,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
@@ -1544,35 +1587,35 @@
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,11 +1637,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1609,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1709,47 +1761,47 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1759,8 +1811,11 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1768,47 +1823,47 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2122,47 +2195,47 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2240,47 +2319,47 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,50 +2608,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1100</v>
       </c>
       <c r="N43" s="3">
         <v>1100</v>
       </c>
       <c r="O43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,37 +2732,40 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2677,8 +2776,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
@@ -2689,56 +2788,59 @@
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1900</v>
       </c>
       <c r="F46" s="3">
         <v>1900</v>
       </c>
       <c r="G46" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="H46" s="3">
         <v>1500</v>
       </c>
       <c r="I46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J46" s="3">
         <v>1400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2300</v>
       </c>
       <c r="K46" s="3">
         <v>2300</v>
       </c>
       <c r="L46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2825,7 +2933,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -2834,7 +2942,7 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2854,8 +2962,8 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
+      <c r="P48" s="3">
+        <v>100</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3087,11 +3207,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2300</v>
       </c>
       <c r="F54" s="3">
         <v>2300</v>
       </c>
       <c r="G54" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="H54" s="3">
         <v>2000</v>
       </c>
       <c r="I54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3284,7 +3415,7 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3302,10 +3433,10 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3314,7 +3445,7 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3370,11 +3504,11 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,7 +3536,7 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
@@ -3408,32 +3545,32 @@
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
@@ -3441,7 +3578,7 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,41 +3598,41 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
       </c>
       <c r="H60" s="3">
+        <v>500</v>
+      </c>
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
@@ -3500,7 +3640,7 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3523,7 +3666,7 @@
         <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3576,7 +3722,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -3587,8 +3733,8 @@
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3605,8 +3751,8 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,41 +3970,41 @@
         <v>1000</v>
       </c>
       <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>900</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
       </c>
       <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
@@ -3854,7 +4012,7 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,55 +4292,58 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E72" s="3">
         <v>1100</v>
       </c>
       <c r="F72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G72" s="3">
         <v>1200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1000</v>
       </c>
       <c r="I72" s="3">
         <v>1000</v>
       </c>
       <c r="J72" s="3">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="K72" s="3">
         <v>2100</v>
       </c>
       <c r="L72" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="M72" s="3">
         <v>1800</v>
       </c>
       <c r="N72" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O72" s="3">
         <v>1300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-14000</v>
       </c>
       <c r="Q72" s="3">
         <v>-14000</v>
       </c>
       <c r="R72" s="3">
-        <v>-13900</v>
+        <v>-14000</v>
       </c>
       <c r="S72" s="3">
         <v>-13900</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,49 +4540,52 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E76" s="3">
         <v>1200</v>
       </c>
       <c r="F76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1800</v>
       </c>
       <c r="M76" s="3">
         <v>1800</v>
       </c>
       <c r="N76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -4408,7 +4594,7 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4548,47 +4743,47 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4659,8 +4858,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,49 +5189,52 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5095,8 +5316,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5270,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>100</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>100</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,23 +5795,26 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5585,16 +5831,16 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,49 +5919,52 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>MMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,44 +766,44 @@
         <v>900</v>
       </c>
       <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>900</v>
       </c>
       <c r="H8" s="3">
         <v>900</v>
       </c>
       <c r="I8" s="3">
+        <v>900</v>
+      </c>
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,43 +831,43 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
       </c>
       <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>500</v>
       </c>
       <c r="M9" s="3">
         <v>500</v>
       </c>
       <c r="N9" s="3">
+        <v>500</v>
+      </c>
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
+      <c r="Q9" s="3">
+        <v>100</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>5</v>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,44 +896,44 @@
         <v>600</v>
       </c>
       <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1000</v>
       </c>
       <c r="L10" s="3">
         <v>1000</v>
       </c>
       <c r="M10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,13 +1104,16 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1129,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,58 +1258,59 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1100</v>
       </c>
       <c r="F17" s="3">
         <v>1100</v>
       </c>
       <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1100</v>
       </c>
       <c r="P17" s="3">
         <v>1100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -1294,59 +1321,62 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,23 +1476,26 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
@@ -1466,26 +1503,26 @@
         <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1527,11 +1567,11 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1542,14 +1582,14 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
@@ -1566,23 +1606,26 @@
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
@@ -1590,35 +1633,35 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,11 +1686,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1658,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>100</v>
-      </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,59 +1801,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1814,59 +1866,62 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,59 +2256,62 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,59 +2386,62 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,53 +2701,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1100</v>
       </c>
       <c r="O43" s="3">
         <v>1100</v>
       </c>
       <c r="P43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,31 +2843,31 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2779,8 +2878,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
@@ -2791,59 +2890,62 @@
       <c r="T45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1900</v>
       </c>
       <c r="G46" s="3">
         <v>1900</v>
       </c>
       <c r="H46" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="I46" s="3">
         <v>1500</v>
       </c>
       <c r="J46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>2300</v>
       </c>
       <c r="L46" s="3">
         <v>2300</v>
       </c>
       <c r="M46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -2936,7 +3044,7 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
@@ -2945,7 +3053,7 @@
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2965,8 +3073,8 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
+      <c r="Q48" s="3">
+        <v>100</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3210,11 +3330,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2300</v>
       </c>
       <c r="G54" s="3">
         <v>2300</v>
       </c>
       <c r="H54" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="I54" s="3">
         <v>2000</v>
       </c>
       <c r="J54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,13 +3533,14 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3418,7 +3549,7 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3436,10 +3567,10 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3448,7 +3579,7 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3507,11 +3641,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,7 +3676,7 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
@@ -3548,32 +3685,32 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
@@ -3581,7 +3718,7 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
       </c>
       <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
       </c>
       <c r="I60" s="3">
+        <v>500</v>
+      </c>
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
       </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
-        <v>100</v>
-      </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
@@ -3643,7 +3783,7 @@
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
@@ -3651,13 +3791,16 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -3669,7 +3812,7 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,7 +3871,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -3736,8 +3882,8 @@
       <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+      <c r="J62" s="3">
+        <v>300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -3754,8 +3900,8 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3973,41 +4131,41 @@
         <v>1000</v>
       </c>
       <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>900</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
       </c>
       <c r="J66" s="3">
+        <v>900</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
-        <v>100</v>
-      </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
@@ -4015,7 +4173,7 @@
         <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U66" s="3">
         <v>0</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,58 +4466,61 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>1200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1100</v>
       </c>
       <c r="F72" s="3">
         <v>1100</v>
       </c>
       <c r="G72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H72" s="3">
         <v>1200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1000</v>
       </c>
       <c r="J72" s="3">
         <v>1000</v>
       </c>
       <c r="K72" s="3">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="L72" s="3">
         <v>2100</v>
       </c>
       <c r="M72" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="N72" s="3">
         <v>1800</v>
       </c>
       <c r="O72" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P72" s="3">
         <v>1300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-14000</v>
       </c>
       <c r="R72" s="3">
         <v>-14000</v>
       </c>
       <c r="S72" s="3">
-        <v>-13900</v>
+        <v>-14000</v>
       </c>
       <c r="T72" s="3">
         <v>-13900</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,52 +4726,55 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1200</v>
       </c>
       <c r="F76" s="3">
         <v>1200</v>
       </c>
       <c r="G76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1800</v>
       </c>
       <c r="N76" s="3">
         <v>1800</v>
       </c>
       <c r="O76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -4597,7 +4783,7 @@
         <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U76" s="3">
         <v>0</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,126 +4856,132 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4861,8 +5060,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,52 +5406,55 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5319,8 +5540,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5503,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>100</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5809,15 +6055,15 @@
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5834,16 +6080,16 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,52 +6171,55 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,47 +776,47 @@
         <v>900</v>
       </c>
       <c r="F8" s="3">
+        <v>900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>900</v>
+      </c>
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -822,8 +829,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,46 +847,46 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
+      <c r="S9" s="3">
+        <v>100</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>5</v>
@@ -887,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,47 +918,47 @@
         <v>600</v>
       </c>
       <c r="F10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G10" s="3">
         <v>600</v>
       </c>
       <c r="H10" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J10" s="3">
         <v>700</v>
       </c>
       <c r="K10" s="3">
+        <v>500</v>
+      </c>
+      <c r="L10" s="3">
+        <v>700</v>
+      </c>
+      <c r="M10" s="3">
         <v>-1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,20 +1140,26 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1152,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1172,8 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,37 +1310,39 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1200</v>
       </c>
       <c r="M17" s="3">
         <v>1100</v>
@@ -1298,25 +1351,25 @@
         <v>1200</v>
       </c>
       <c r="O17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>0</v>
@@ -1324,73 +1377,85 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>300</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,56 +1546,62 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1544,40 +1617,46 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1585,17 +1664,17 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
@@ -1609,73 +1688,85 @@
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1689,14 +1780,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1707,22 +1798,22 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,73 +2398,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2745,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,50 +2756,50 @@
         <v>1100</v>
       </c>
       <c r="E41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>900</v>
       </c>
       <c r="I41" s="3">
         <v>800</v>
       </c>
       <c r="J41" s="3">
+        <v>900</v>
+      </c>
+      <c r="K41" s="3">
+        <v>800</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>400</v>
       </c>
       <c r="M41" s="3">
         <v>700</v>
       </c>
       <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
+        <v>700</v>
+      </c>
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2812,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,13 +2883,19 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E43" s="3">
         <v>1300</v>
@@ -2719,44 +2904,44 @@
         <v>1100</v>
       </c>
       <c r="G43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>900</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
       </c>
       <c r="L43" s="3">
+        <v>900</v>
+      </c>
+      <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2769,8 +2954,14 @@
       <c r="W43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3025,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,34 +3043,34 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2881,11 +3078,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>5</v>
@@ -2893,65 +3090,71 @@
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F46" s="3">
         <v>2300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1800</v>
       </c>
       <c r="G46" s="3">
         <v>1900</v>
       </c>
       <c r="H46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3167,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3238,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,28 +3253,28 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3076,11 +3291,11 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
@@ -3094,8 +3309,14 @@
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3333,14 +3572,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3354,8 +3593,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3664,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F54" s="3">
         <v>2700</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>2200</v>
       </c>
       <c r="G54" s="3">
         <v>2300</v>
       </c>
       <c r="H54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3735,14 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3793,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,19 +3804,19 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3570,22 +3831,22 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3599,8 +3860,14 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3644,14 +3911,14 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3664,13 +3931,19 @@
       <c r="W58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -3679,31 +3952,31 @@
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
-      </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -3712,101 +3985,113 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>500</v>
+      </c>
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
-        <v>100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -3815,10 +4100,10 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3859,13 +4144,19 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -3874,10 +4165,10 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -3885,11 +4176,11 @@
       <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
+        <v>300</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -3903,11 +4194,11 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>1000</v>
       </c>
       <c r="G66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H66" s="3">
         <v>1000</v>
       </c>
       <c r="I66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
       </c>
       <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
-        <v>100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
       <c r="T66" s="3">
         <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,64 +4810,70 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F72" s="3">
         <v>1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1200</v>
       </c>
       <c r="I72" s="3">
         <v>1100</v>
       </c>
       <c r="J72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L72" s="3">
         <v>1000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-14000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-13900</v>
       </c>
       <c r="V72" s="3">
         <v>-13900</v>
@@ -4534,8 +4881,14 @@
       <c r="W72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1300</v>
       </c>
       <c r="I76" s="3">
         <v>1200</v>
       </c>
       <c r="J76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-100</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5063,11 +5460,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>5</v>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,58 +5836,64 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>300</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
+      <c r="Q89" s="3">
+        <v>300</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5474,8 +5907,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5938,15 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5543,11 +5984,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5736,13 +6195,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
@@ -5759,8 +6218,14 @@
       <c r="W94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,32 +6529,38 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6083,19 +6574,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6109,8 +6600,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,58 +6671,64 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -6237,6 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,123 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="3">
         <v>900</v>
@@ -782,47 +790,47 @@
         <v>900</v>
       </c>
       <c r="H8" s="3">
+        <v>900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>900</v>
+      </c>
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -835,16 +843,22 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -853,46 +867,46 @@
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
+      <c r="U9" s="3">
+        <v>100</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>5</v>
@@ -906,16 +920,22 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>600</v>
@@ -924,47 +944,47 @@
         <v>600</v>
       </c>
       <c r="H10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I10" s="3">
         <v>600</v>
       </c>
       <c r="J10" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L10" s="3">
         <v>700</v>
       </c>
       <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
+        <v>700</v>
+      </c>
+      <c r="O10" s="3">
         <v>-1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,26 +1180,32 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1197,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,43 +1364,45 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>1100</v>
@@ -1357,25 +1411,25 @@
         <v>1200</v>
       </c>
       <c r="Q17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
         <v>0</v>
@@ -1383,79 +1437,91 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,62 +1620,68 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1623,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1649,20 +1729,20 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -1670,17 +1750,17 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
@@ -1694,84 +1774,96 @@
       <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1786,14 +1878,14 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1804,22 +1896,22 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,65 +2919,67 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="E41" s="3">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F41" s="3">
         <v>1100</v>
       </c>
       <c r="G41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
       </c>
       <c r="L41" s="3">
+        <v>900</v>
+      </c>
+      <c r="M41" s="3">
+        <v>800</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>400</v>
       </c>
       <c r="O41" s="3">
         <v>700</v>
       </c>
       <c r="P41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>700</v>
+      </c>
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,19 +3069,25 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1100</v>
       </c>
       <c r="G43" s="3">
         <v>1300</v>
@@ -2910,44 +3096,44 @@
         <v>1100</v>
       </c>
       <c r="I43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>900</v>
       </c>
       <c r="M43" s="3">
         <v>500</v>
       </c>
       <c r="N43" s="3">
+        <v>900</v>
+      </c>
+      <c r="O43" s="3">
+        <v>500</v>
+      </c>
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3049,34 +3247,34 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3084,11 +3282,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
@@ -3096,71 +3294,77 @@
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="E46" s="3">
         <v>2400</v>
       </c>
       <c r="F46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H46" s="3">
         <v>2300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1800</v>
       </c>
       <c r="I46" s="3">
         <v>1900</v>
       </c>
       <c r="J46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
@@ -3173,8 +3377,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,13 +3454,19 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -3259,28 +3475,28 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3297,11 +3513,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3578,14 +3818,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,65 +3916,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>2200</v>
       </c>
       <c r="I54" s="3">
         <v>2300</v>
       </c>
       <c r="J54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,34 +4055,36 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3837,22 +4099,22 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -3866,8 +4128,14 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3917,14 +4185,14 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3937,19 +4205,25 @@
       <c r="Y58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3958,31 +4232,31 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
-      </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
@@ -3991,96 +4265,108 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
       </c>
       <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
-        <v>100</v>
-      </c>
-      <c r="U60" s="3">
-        <v>100</v>
-      </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
@@ -4106,10 +4392,10 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4150,19 +4436,25 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -4171,10 +4463,10 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -4182,11 +4474,11 @@
       <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
+      <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
+        <v>300</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
@@ -4200,11 +4492,11 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,70 +4759,76 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
         <v>700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1000</v>
       </c>
       <c r="H66" s="3">
         <v>1000</v>
       </c>
       <c r="I66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
       </c>
       <c r="K66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
       <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
-        <v>100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>100</v>
-      </c>
       <c r="V66" s="3">
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,70 +5158,76 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G72" s="3">
         <v>1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>1200</v>
       </c>
       <c r="K72" s="3">
         <v>1100</v>
       </c>
       <c r="L72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N72" s="3">
         <v>1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-14000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-14000</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-13900</v>
       </c>
       <c r="X72" s="3">
         <v>-13900</v>
@@ -4887,8 +5235,14 @@
       <c r="Y72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G76" s="3">
         <v>2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1300</v>
       </c>
       <c r="K76" s="3">
         <v>1200</v>
       </c>
       <c r="L76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-100</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5466,11 +5864,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>5</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,64 +6270,70 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>300</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
+      <c r="S89" s="3">
+        <v>300</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,19 +6380,21 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5990,11 +6432,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6201,13 +6661,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>100</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>100</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>5</v>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,38 +7021,44 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6580,19 +7072,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,64 +7175,70 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="U102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>MMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,136 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
         <v>1100</v>
       </c>
       <c r="F8" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="H8" s="3">
         <v>900</v>
@@ -796,47 +803,47 @@
         <v>900</v>
       </c>
       <c r="J8" s="3">
+        <v>900</v>
+      </c>
+      <c r="K8" s="3">
+        <v>900</v>
+      </c>
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
@@ -849,8 +856,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -861,10 +874,10 @@
         <v>400</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -873,46 +886,46 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
+      <c r="W9" s="3">
+        <v>100</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>5</v>
@@ -926,22 +939,28 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
         <v>700</v>
       </c>
       <c r="F10" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G10" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H10" s="3">
         <v>600</v>
@@ -950,47 +969,47 @@
         <v>600</v>
       </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
         <v>600</v>
       </c>
       <c r="L10" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N10" s="3">
         <v>700</v>
       </c>
       <c r="O10" s="3">
+        <v>500</v>
+      </c>
+      <c r="P10" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,32 +1219,38 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1243,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1417,10 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,37 +1431,37 @@
         <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1100</v>
@@ -1417,25 +1470,25 @@
         <v>1200</v>
       </c>
       <c r="S17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>0</v>
@@ -1443,85 +1496,97 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,68 +1693,74 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1703,8 +1776,14 @@
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1735,20 +1814,20 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
@@ -1756,17 +1835,17 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
@@ -1780,85 +1859,97 @@
       <c r="AA22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,10 +1957,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1884,14 +1975,14 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1902,22 +1993,22 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
-        <v>100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,85 +2689,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,71 +3092,73 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1100</v>
       </c>
       <c r="H41" s="3">
         <v>1100</v>
       </c>
       <c r="I41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>900</v>
       </c>
       <c r="M41" s="3">
         <v>800</v>
       </c>
       <c r="N41" s="3">
+        <v>900</v>
+      </c>
+      <c r="O41" s="3">
+        <v>800</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>700</v>
       </c>
       <c r="R41" s="3">
+        <v>400</v>
+      </c>
+      <c r="S41" s="3">
+        <v>700</v>
+      </c>
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
@@ -2998,8 +3171,14 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,25 +3254,31 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1100</v>
       </c>
       <c r="I43" s="3">
         <v>1300</v>
@@ -3102,44 +3287,44 @@
         <v>1100</v>
       </c>
       <c r="K43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>900</v>
       </c>
       <c r="O43" s="3">
         <v>500</v>
       </c>
       <c r="P43" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>500</v>
+      </c>
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3152,8 +3337,14 @@
       <c r="AA43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3253,34 +3450,34 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3288,11 +3485,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>5</v>
@@ -3300,77 +3497,83 @@
       <c r="Y45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F46" s="3">
         <v>3000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2600</v>
       </c>
       <c r="G46" s="3">
         <v>2400</v>
       </c>
       <c r="H46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J46" s="3">
         <v>2300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1800</v>
       </c>
       <c r="K46" s="3">
         <v>1900</v>
       </c>
       <c r="L46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
@@ -3383,8 +3586,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,19 +3669,25 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
-        <v>300</v>
-      </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -3481,28 +3696,28 @@
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3519,11 +3734,11 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
@@ -3537,8 +3752,14 @@
       <c r="AA48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3824,14 +4063,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,71 +4167,77 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F54" s="3">
         <v>3300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2200</v>
       </c>
       <c r="K54" s="3">
         <v>2300</v>
       </c>
       <c r="L54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1500</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
@@ -3999,8 +4250,14 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,40 +4316,42 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -4105,22 +4366,22 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4134,8 +4395,14 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4191,14 +4458,14 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
@@ -4211,25 +4478,31 @@
       <c r="AA58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -4238,31 +4511,31 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
-      </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
@@ -4271,102 +4544,114 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
-        <v>600</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
+        <v>500</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
-        <v>100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>100</v>
-      </c>
       <c r="X60" s="3">
         <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4383,13 +4668,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -4398,10 +4683,10 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4442,37 +4727,43 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -4480,11 +4771,11 @@
       <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
+      <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
+        <v>300</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
@@ -4498,11 +4789,11 @@
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +5059,14 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,76 +5074,82 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
       </c>
       <c r="G66" s="3">
+        <v>500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1000</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
       </c>
       <c r="K66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
       </c>
       <c r="M66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
+        <v>300</v>
+      </c>
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
-        <v>100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>100</v>
-      </c>
       <c r="X66" s="3">
         <v>100</v>
       </c>
       <c r="Y66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,76 +5505,82 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F72" s="3">
         <v>2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1200</v>
       </c>
       <c r="M72" s="3">
         <v>1100</v>
       </c>
       <c r="N72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P72" s="3">
         <v>1000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-14000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-14000</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-13900</v>
       </c>
       <c r="Z72" s="3">
         <v>-13900</v>
@@ -5241,8 +5588,14 @@
       <c r="AA72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1300</v>
       </c>
       <c r="M76" s="3">
         <v>1200</v>
       </c>
       <c r="N76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-100</v>
       </c>
       <c r="X76" s="3">
         <v>-100</v>
       </c>
       <c r="Y76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5870,11 +6267,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>5</v>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,70 +6703,76 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>300</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
+      <c r="U89" s="3">
+        <v>300</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6353,8 +6786,14 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,25 +6821,27 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -6438,11 +6879,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6667,13 +7126,13 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>100</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>100</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>5</v>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7512,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7057,14 +7548,14 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7078,19 +7569,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7104,8 +7595,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,70 +7678,76 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
+      <c r="W102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -7256,6 +7759,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>MMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,143 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>900</v>
       </c>
       <c r="I8" s="3">
         <v>900</v>
@@ -809,44 +813,44 @@
         <v>900</v>
       </c>
       <c r="L8" s="3">
+        <v>900</v>
+      </c>
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>900</v>
       </c>
       <c r="O8" s="3">
         <v>900</v>
       </c>
       <c r="P8" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
@@ -862,8 +866,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -880,7 +887,7 @@
         <v>400</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -892,43 +899,43 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
       </c>
       <c r="Q9" s="3">
+        <v>400</v>
+      </c>
+      <c r="R9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>500</v>
       </c>
       <c r="T9" s="3">
         <v>500</v>
       </c>
       <c r="U9" s="3">
+        <v>500</v>
+      </c>
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
+      <c r="X9" s="3">
+        <v>100</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>5</v>
@@ -945,25 +952,28 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>600</v>
       </c>
       <c r="I10" s="3">
         <v>600</v>
@@ -975,44 +985,44 @@
         <v>600</v>
       </c>
       <c r="L10" s="3">
+        <v>600</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1600</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1000</v>
       </c>
       <c r="S10" s="3">
         <v>1000</v>
       </c>
       <c r="T10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1100</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,35 +1242,38 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>-500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1288,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,13 +1445,14 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1000</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -1437,61 +1464,61 @@
         <v>1000</v>
       </c>
       <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
       </c>
       <c r="M17" s="3">
         <v>1100</v>
       </c>
       <c r="N17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1100</v>
       </c>
       <c r="W17" s="3">
         <v>1100</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
@@ -1502,80 +1529,83 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
@@ -1585,8 +1615,11 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,13 +1649,14 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1699,44 +1733,47 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
         <v>100</v>
       </c>
@@ -1744,26 +1781,26 @@
         <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1782,8 +1819,11 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1820,17 +1860,17 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
@@ -1841,14 +1881,14 @@
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>5</v>
@@ -1865,44 +1905,47 @@
       <c r="AC22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
@@ -1910,35 +1953,35 @@
         <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
@@ -1948,22 +1991,25 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1981,11 +2027,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1999,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
-        <v>100</v>
-      </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,80 +2163,83 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>400</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
@@ -2197,80 +2249,83 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>400</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2335,11 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,13 +2679,16 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2695,80 +2765,83 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>400</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
@@ -2778,8 +2851,11 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,80 +2937,83 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>400</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
@@ -2944,96 +3023,102 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,25 +3180,26 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="3">
         <v>1700</v>
       </c>
       <c r="F41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1100</v>
       </c>
       <c r="I41" s="3">
         <v>1100</v>
@@ -3121,47 +3208,47 @@
         <v>1100</v>
       </c>
       <c r="K41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -3177,8 +3264,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,74 +3350,77 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1100</v>
       </c>
       <c r="V43" s="3">
         <v>1100</v>
       </c>
       <c r="W43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X43" s="3">
         <v>600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3456,31 +3555,31 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3491,8 +3590,8 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>5</v>
@@ -3503,80 +3602,83 @@
       <c r="AA45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB45" s="3">
-        <v>0</v>
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1900</v>
       </c>
       <c r="N46" s="3">
         <v>1900</v>
       </c>
       <c r="O46" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="P46" s="3">
         <v>1500</v>
       </c>
       <c r="Q46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R46" s="3">
         <v>1400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>2300</v>
       </c>
       <c r="S46" s="3">
         <v>2300</v>
       </c>
       <c r="T46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U46" s="3">
         <v>2100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
@@ -3592,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,25 +3792,25 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -3711,7 +3819,7 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
@@ -3720,7 +3828,7 @@
         <v>500</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3740,8 +3848,8 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
+      <c r="X48" s="3">
+        <v>100</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>5</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4069,11 +4189,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,74 +4296,77 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2300</v>
       </c>
       <c r="N54" s="3">
         <v>2300</v>
       </c>
       <c r="O54" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="P54" s="3">
         <v>2000</v>
       </c>
       <c r="Q54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4330,22 +4461,22 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -4354,7 +4485,7 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -4372,10 +4503,10 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4384,7 +4515,7 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4464,11 +4598,11 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>5</v>
       </c>
@@ -4484,8 +4618,11 @@
       <c r="AC58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4496,16 +4633,16 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -4517,7 +4654,7 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -4526,32 +4663,32 @@
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
-        <v>100</v>
-      </c>
       <c r="Y59" s="3">
         <v>100</v>
       </c>
@@ -4559,7 +4696,7 @@
         <v>100</v>
       </c>
       <c r="AA59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
@@ -4567,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4576,65 +4716,65 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
       </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>300</v>
       </c>
       <c r="V60" s="3">
+        <v>300</v>
+      </c>
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="X60" s="3">
-        <v>100</v>
-      </c>
       <c r="Y60" s="3">
         <v>100</v>
       </c>
@@ -4642,7 +4782,7 @@
         <v>100</v>
       </c>
       <c r="AA60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB60" s="3">
         <v>0</v>
@@ -4650,8 +4790,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4674,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
@@ -4689,7 +4832,7 @@
         <v>300</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4745,19 +4891,19 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -4766,7 +4912,7 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -4777,8 +4923,8 @@
       <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
+      <c r="Q62" s="3">
+        <v>300</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
@@ -4795,8 +4941,8 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,8 +5220,11 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5080,16 +5238,16 @@
         <v>800</v>
       </c>
       <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
       </c>
       <c r="K66" s="3">
         <v>1000</v>
@@ -5098,41 +5256,41 @@
         <v>1000</v>
       </c>
       <c r="M66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>900</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
       </c>
       <c r="Q66" s="3">
+        <v>900</v>
+      </c>
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>300</v>
       </c>
       <c r="V66" s="3">
+        <v>300</v>
+      </c>
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="X66" s="3">
-        <v>100</v>
-      </c>
       <c r="Y66" s="3">
         <v>100</v>
       </c>
@@ -5140,7 +5298,7 @@
         <v>100</v>
       </c>
       <c r="AA66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB66" s="3">
         <v>0</v>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,79 +5682,82 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E72" s="3">
         <v>2600</v>
       </c>
       <c r="F72" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G72" s="3">
         <v>2400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>2000</v>
       </c>
       <c r="H72" s="3">
         <v>2000</v>
       </c>
       <c r="I72" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J72" s="3">
         <v>1900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1100</v>
       </c>
       <c r="M72" s="3">
         <v>1100</v>
       </c>
       <c r="N72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O72" s="3">
         <v>1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>1000</v>
       </c>
       <c r="Q72" s="3">
         <v>1000</v>
       </c>
       <c r="R72" s="3">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="S72" s="3">
         <v>2100</v>
       </c>
       <c r="T72" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="U72" s="3">
         <v>1800</v>
       </c>
       <c r="V72" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W72" s="3">
         <v>1300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1000</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-14000</v>
       </c>
       <c r="Y72" s="3">
         <v>-14000</v>
       </c>
       <c r="Z72" s="3">
-        <v>-13900</v>
+        <v>-14000</v>
       </c>
       <c r="AA72" s="3">
         <v>-13900</v>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,73 +6026,76 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E76" s="3">
         <v>2700</v>
       </c>
       <c r="F76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G76" s="3">
         <v>2500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2100</v>
       </c>
       <c r="H76" s="3">
         <v>2100</v>
       </c>
       <c r="I76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J76" s="3">
         <v>2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1200</v>
       </c>
       <c r="M76" s="3">
         <v>1200</v>
       </c>
       <c r="N76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>1800</v>
       </c>
       <c r="U76" s="3">
         <v>1800</v>
       </c>
       <c r="V76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W76" s="3">
         <v>1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1100</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-100</v>
       </c>
       <c r="Y76" s="3">
         <v>-100</v>
@@ -5918,7 +6104,7 @@
         <v>-100</v>
       </c>
       <c r="AA76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB76" s="3">
         <v>0</v>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,168 +6198,174 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>400</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
@@ -6180,8 +6375,11 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6273,8 +6472,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>5</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,73 +6923,76 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
+      <c r="X89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6792,8 +7009,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6837,11 +7058,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -6885,8 +7106,8 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7132,10 +7362,10 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>100</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>100</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>5</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7554,11 +7800,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7575,16 +7821,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="X100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,73 +7933,76 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
+      <c r="X102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -7765,6 +8017,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>MMND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,150 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>900</v>
       </c>
       <c r="J8" s="3">
         <v>900</v>
@@ -816,44 +820,44 @@
         <v>900</v>
       </c>
       <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
-      </c>
-      <c r="O8" s="3">
-        <v>900</v>
       </c>
       <c r="P8" s="3">
         <v>900</v>
       </c>
       <c r="Q8" s="3">
+        <v>900</v>
+      </c>
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
         <v>0</v>
       </c>
@@ -869,13 +873,16 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
         <v>400</v>
@@ -890,7 +897,7 @@
         <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -902,43 +909,43 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
       </c>
       <c r="R9" s="3">
+        <v>400</v>
+      </c>
+      <c r="S9" s="3">
         <v>1600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>500</v>
       </c>
       <c r="U9" s="3">
         <v>500</v>
       </c>
       <c r="V9" s="3">
+        <v>500</v>
+      </c>
+      <c r="W9" s="3">
         <v>1500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
+      <c r="Y9" s="3">
+        <v>100</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>5</v>
@@ -955,28 +962,31 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>600</v>
       </c>
       <c r="J10" s="3">
         <v>600</v>
@@ -988,44 +998,44 @@
         <v>600</v>
       </c>
       <c r="M10" s="3">
+        <v>600</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1600</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1000</v>
       </c>
       <c r="T10" s="3">
         <v>1000</v>
       </c>
       <c r="U10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,27 +1276,27 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1311,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,13 +1472,14 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
@@ -1467,61 +1494,61 @@
         <v>1000</v>
       </c>
       <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1100</v>
       </c>
       <c r="N17" s="3">
         <v>1100</v>
       </c>
       <c r="O17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1100</v>
       </c>
       <c r="X17" s="3">
         <v>1100</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Z17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB17" s="3">
         <v>0</v>
@@ -1532,83 +1559,86 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
         <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
-        <v>100</v>
-      </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,13 +1683,14 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1736,47 +1770,50 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
@@ -1784,26 +1821,26 @@
         <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1863,17 +1903,17 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
@@ -1884,14 +1924,14 @@
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>5</v>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,38 +1960,38 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
@@ -1956,35 +1999,35 @@
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
@@ -1994,25 +2037,28 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -2030,11 +2076,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -2048,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
-        <v>100</v>
-      </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,83 +2215,86 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>400</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
-        <v>100</v>
-      </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
@@ -2252,83 +2304,86 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>400</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
-        <v>100</v>
-      </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,13 +2749,16 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2768,83 +2838,86 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>400</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
         <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
-        <v>100</v>
-      </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,83 +3016,86 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>400</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
         <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
-        <v>100</v>
-      </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,28 +3267,29 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1700</v>
       </c>
       <c r="F41" s="3">
         <v>1700</v>
       </c>
       <c r="G41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1100</v>
       </c>
       <c r="J41" s="3">
         <v>1100</v>
@@ -3211,47 +3298,47 @@
         <v>1100</v>
       </c>
       <c r="L41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,77 +3443,80 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1300</v>
-      </c>
-      <c r="V43" s="3">
-        <v>1100</v>
       </c>
       <c r="W43" s="3">
         <v>1100</v>
       </c>
       <c r="X43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>5</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3558,31 +3657,31 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3593,8 +3692,8 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>5</v>
@@ -3605,14 +3704,17 @@
       <c r="AB45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,68 +3722,68 @@
         <v>3600</v>
       </c>
       <c r="E46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F46" s="3">
         <v>3400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1900</v>
       </c>
       <c r="O46" s="3">
         <v>1900</v>
       </c>
       <c r="P46" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="Q46" s="3">
         <v>1500</v>
       </c>
       <c r="R46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S46" s="3">
         <v>1400</v>
-      </c>
-      <c r="S46" s="3">
-        <v>2300</v>
       </c>
       <c r="T46" s="3">
         <v>2300</v>
       </c>
       <c r="U46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V46" s="3">
         <v>2100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3795,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -3822,7 +3930,7 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
@@ -3831,7 +3939,7 @@
         <v>500</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3851,8 +3959,8 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
+      <c r="Y48" s="3">
+        <v>100</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>5</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4192,11 +4312,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4308,68 +4434,68 @@
         <v>3600</v>
       </c>
       <c r="E54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2300</v>
       </c>
       <c r="O54" s="3">
         <v>2300</v>
       </c>
       <c r="P54" s="3">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="Q54" s="3">
         <v>2000</v>
       </c>
       <c r="R54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S54" s="3">
         <v>1500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1500</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
       <c r="Z54" s="3">
         <v>0</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4464,22 +4595,22 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -4488,7 +4619,7 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -4506,10 +4637,10 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -4518,7 +4649,7 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4601,11 +4735,11 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>5</v>
       </c>
@@ -4621,13 +4755,16 @@
       <c r="AD58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>400</v>
@@ -4636,16 +4773,16 @@
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -4657,7 +4794,7 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
@@ -4666,32 +4803,32 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
       <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
-        <v>100</v>
-      </c>
       <c r="Z59" s="3">
         <v>100</v>
       </c>
@@ -4699,7 +4836,7 @@
         <v>100</v>
       </c>
       <c r="AB59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC59" s="3">
         <v>0</v>
@@ -4707,77 +4844,80 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
       </c>
       <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>500</v>
       </c>
       <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>300</v>
       </c>
       <c r="W60" s="3">
+        <v>300</v>
+      </c>
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
-        <v>100</v>
-      </c>
       <c r="Z60" s="3">
         <v>100</v>
       </c>
@@ -4785,7 +4925,7 @@
         <v>100</v>
       </c>
       <c r="AB60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC60" s="3">
         <v>0</v>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4820,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
@@ -4835,7 +4978,7 @@
         <v>300</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4894,19 +5040,19 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -4915,7 +5061,7 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
@@ -4926,8 +5072,8 @@
       <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
+      <c r="R62" s="3">
+        <v>300</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
@@ -4944,8 +5090,8 @@
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,13 +5378,16 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
@@ -5241,16 +5399,16 @@
         <v>800</v>
       </c>
       <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
@@ -5259,41 +5417,41 @@
         <v>1000</v>
       </c>
       <c r="N66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>900</v>
       </c>
       <c r="Q66" s="3">
         <v>900</v>
       </c>
       <c r="R66" s="3">
+        <v>900</v>
+      </c>
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
       </c>
       <c r="W66" s="3">
+        <v>300</v>
+      </c>
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
-        <v>100</v>
-      </c>
       <c r="Z66" s="3">
         <v>100</v>
       </c>
@@ -5301,7 +5459,7 @@
         <v>100</v>
       </c>
       <c r="AB66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC66" s="3">
         <v>0</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,82 +5856,85 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>2600</v>
       </c>
       <c r="F72" s="3">
         <v>2600</v>
       </c>
       <c r="G72" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H72" s="3">
         <v>2400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>2000</v>
       </c>
       <c r="I72" s="3">
         <v>2000</v>
       </c>
       <c r="J72" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>1100</v>
       </c>
       <c r="N72" s="3">
         <v>1100</v>
       </c>
       <c r="O72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P72" s="3">
         <v>1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>1000</v>
       </c>
       <c r="R72" s="3">
         <v>1000</v>
       </c>
       <c r="S72" s="3">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="T72" s="3">
         <v>2100</v>
       </c>
       <c r="U72" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="V72" s="3">
         <v>1800</v>
       </c>
       <c r="W72" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X72" s="3">
         <v>1300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-14000</v>
       </c>
       <c r="Z72" s="3">
         <v>-14000</v>
       </c>
       <c r="AA72" s="3">
-        <v>-13900</v>
+        <v>-14000</v>
       </c>
       <c r="AB72" s="3">
         <v>-13900</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>-13900</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-13900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,76 +6212,79 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2700</v>
       </c>
       <c r="F76" s="3">
         <v>2700</v>
       </c>
       <c r="G76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H76" s="3">
         <v>2500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2100</v>
       </c>
       <c r="I76" s="3">
         <v>2100</v>
       </c>
       <c r="J76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1200</v>
       </c>
       <c r="N76" s="3">
         <v>1200</v>
       </c>
       <c r="O76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2100</v>
-      </c>
-      <c r="U76" s="3">
-        <v>1800</v>
       </c>
       <c r="V76" s="3">
         <v>1800</v>
       </c>
       <c r="W76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X76" s="3">
         <v>1400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-100</v>
       </c>
       <c r="Z76" s="3">
         <v>-100</v>
@@ -6107,7 +6293,7 @@
         <v>-100</v>
       </c>
       <c r="AB76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC76" s="3">
         <v>0</v>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,174 +6390,180 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>400</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
         <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
-        <v>100</v>
-      </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6475,8 +6674,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>5</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,76 +7140,79 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7109,8 +7330,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7365,10 +7595,10 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
-        <v>100</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>100</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>5</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7803,11 +8049,11 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7824,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,76 +8185,79 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>0</v>
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
